--- a/Assessment 1 Team Contribution Sheet.xlsx
+++ b/Assessment 1 Team Contribution Sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenapierac-my.sharepoint.com/personal/40456390_live_napier_ac_uk/Documents/GA/Year 2/Trimester 2/Software Engineering Methods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nroi-my.sharepoint.com/personal/sonia_gruszczynska_networkroi_co_uk/Documents/NAPIER/YEAR 2/test-dockerfile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{8501ACD6-65A4-4F9F-A85C-975BD429F23C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{904F8DB1-2A27-4D54-B5B8-F49D836F0545}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{963B7F49-7581-48D5-809B-87CAB7334287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="0" windowWidth="14340" windowHeight="15600" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{EA149F93-FE08-44F5-A732-4F1A985B1F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,20 +621,20 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75">
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -654,55 +654,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
         <v>25</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>25</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>25</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>25</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>25</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7">
         <v>25</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>25</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="15.75">
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -722,7 +730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="50.25" customHeight="1" thickBot="1">
+    <row r="9" spans="2:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
@@ -732,10 +740,10 @@
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
   </sheetData>
